--- a/tests/fixtures/sample.xlsx
+++ b/tests/fixtures/sample.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nbonamy/src/witsy/tests/fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34A26346-34CC-A641-A9BA-9786A81C4EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F94B3A1-9E6B-9F40-9267-CCD909BC376D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{9FAE6F27-1632-8747-A506-57E3A74F508F}"/>
+    <workbookView xWindow="6160" yWindow="2340" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{9FAE6F27-1632-8747-A506-57E3A74F508F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -36,9 +36,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Hello from Excel</t>
+  </si>
+  <si>
+    <t>Bye</t>
+  </si>
+  <si>
+    <t>Excel</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>Au-revoir</t>
+  </si>
+  <si>
+    <t>depuis</t>
   </si>
 </sst>
 </file>
@@ -412,7 +427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{648ED890-9CB0-8B4A-BE12-E983D9018984}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -424,4 +439,41 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80142C0E-F1FC-CF44-9937-259E30CD3138}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>